--- a/Data/Bystrategi_Grenland/Klima/Luftforurensing/PM10 og NO2 døgn 2022.xlsx
+++ b/Data/Bystrategi_Grenland/Klima/Luftforurensing/PM10 og NO2 døgn 2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\4. Avdeling MHV\Luftovervåkning\Prosjekter\Rådata til interaktivt dashbord TFK (2025)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telemarkfylke-my.sharepoint.com/personal/even_sannes_riiser_telemarkfylke_no/Documents/Github/Telemark/Data/Bystrategi_Grenland/Klima/Luftforurensing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEBCA356-F06C-462A-8F36-33F2E5319328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{CEBCA356-F06C-462A-8F36-33F2E5319328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C6340B3-DB2A-496C-8CA7-6B1D0A9DBE19}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="17640" xr2:uid="{79517306-B047-4C39-80B5-5D7FBD524389}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="77040" windowHeight="21120" xr2:uid="{79517306-B047-4C39-80B5-5D7FBD524389}"/>
   </bookViews>
   <sheets>
     <sheet name="Tidsserie_2361-2473-2723-2724-1" sheetId="1" r:id="rId1"/>
@@ -922,13 +922,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2930AE-0AD0-413F-831F-B5CB4DCC18E8}">
   <dimension ref="A1:T366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -990,7 +993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44562</v>
       </c>
@@ -1052,7 +1055,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44563</v>
       </c>
@@ -1114,7 +1117,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44564</v>
       </c>
@@ -1176,7 +1179,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44565</v>
       </c>
@@ -1238,7 +1241,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44566</v>
       </c>
@@ -1300,7 +1303,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44567</v>
       </c>
@@ -1362,7 +1365,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44568</v>
       </c>
@@ -1424,7 +1427,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44569</v>
       </c>
@@ -1486,7 +1489,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44570</v>
       </c>
@@ -1548,7 +1551,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44571</v>
       </c>
@@ -1610,7 +1613,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44572</v>
       </c>
@@ -1672,7 +1675,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44573</v>
       </c>
@@ -1734,7 +1737,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44574</v>
       </c>
@@ -1796,7 +1799,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44575</v>
       </c>
@@ -1858,7 +1861,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44576</v>
       </c>
@@ -1920,7 +1923,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44577</v>
       </c>
@@ -1982,7 +1985,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44578</v>
       </c>
@@ -2044,7 +2047,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44579</v>
       </c>
@@ -2106,7 +2109,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44580</v>
       </c>
@@ -2168,7 +2171,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44581</v>
       </c>
@@ -2230,7 +2233,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44582</v>
       </c>
@@ -2292,7 +2295,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44583</v>
       </c>
@@ -2354,7 +2357,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44584</v>
       </c>
@@ -2416,7 +2419,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44585</v>
       </c>
@@ -2478,7 +2481,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44586</v>
       </c>
@@ -2540,7 +2543,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44587</v>
       </c>
@@ -2602,7 +2605,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44588</v>
       </c>
@@ -2664,7 +2667,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44589</v>
       </c>
@@ -2726,7 +2729,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44590</v>
       </c>
@@ -2788,7 +2791,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44591</v>
       </c>
@@ -2850,7 +2853,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44592</v>
       </c>
@@ -2912,7 +2915,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44593</v>
       </c>
@@ -2974,7 +2977,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44594</v>
       </c>
@@ -3036,7 +3039,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44595</v>
       </c>
@@ -3098,7 +3101,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44596</v>
       </c>
@@ -3160,7 +3163,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44597</v>
       </c>
@@ -3222,7 +3225,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44598</v>
       </c>
@@ -3284,7 +3287,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44599</v>
       </c>
@@ -3346,7 +3349,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44600</v>
       </c>
@@ -3408,7 +3411,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44601</v>
       </c>
@@ -3470,7 +3473,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44602</v>
       </c>
@@ -3532,7 +3535,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44603</v>
       </c>
@@ -3594,7 +3597,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44604</v>
       </c>
@@ -3656,7 +3659,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44605</v>
       </c>
@@ -3718,7 +3721,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44606</v>
       </c>
@@ -3780,7 +3783,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44607</v>
       </c>
@@ -3842,7 +3845,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44608</v>
       </c>
@@ -3904,7 +3907,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44609</v>
       </c>
@@ -3966,7 +3969,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44610</v>
       </c>
@@ -4028,7 +4031,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44611</v>
       </c>
@@ -4090,7 +4093,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44612</v>
       </c>
@@ -4152,7 +4155,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44613</v>
       </c>
@@ -4214,7 +4217,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44614</v>
       </c>
@@ -4276,7 +4279,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44615</v>
       </c>
@@ -4338,7 +4341,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44616</v>
       </c>
@@ -4400,7 +4403,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44617</v>
       </c>
@@ -4462,7 +4465,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>44618</v>
       </c>
@@ -4524,7 +4527,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>44619</v>
       </c>
@@ -4586,7 +4589,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>44620</v>
       </c>
@@ -4648,7 +4651,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>44621</v>
       </c>
@@ -4710,7 +4713,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>44622</v>
       </c>
@@ -4772,7 +4775,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>44623</v>
       </c>
@@ -4834,7 +4837,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>44624</v>
       </c>
@@ -4890,7 +4893,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>44625</v>
       </c>
@@ -4952,7 +4955,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>44626</v>
       </c>
@@ -5014,7 +5017,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>44627</v>
       </c>
@@ -5076,7 +5079,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>44628</v>
       </c>
@@ -5138,7 +5141,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>44629</v>
       </c>
@@ -5200,7 +5203,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>44630</v>
       </c>
@@ -5262,7 +5265,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>44631</v>
       </c>
@@ -5324,7 +5327,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>44632</v>
       </c>
@@ -5386,7 +5389,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>44633</v>
       </c>
@@ -5448,7 +5451,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>44634</v>
       </c>
@@ -5510,7 +5513,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>44635</v>
       </c>
@@ -5572,7 +5575,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>44636</v>
       </c>
@@ -5634,7 +5637,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>44637</v>
       </c>
@@ -5696,7 +5699,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>44638</v>
       </c>
@@ -5752,7 +5755,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>44639</v>
       </c>
@@ -5808,7 +5811,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>44640</v>
       </c>
@@ -5864,7 +5867,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>44641</v>
       </c>
@@ -5920,7 +5923,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>44642</v>
       </c>
@@ -5976,7 +5979,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>44643</v>
       </c>
@@ -6032,7 +6035,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>44644</v>
       </c>
@@ -6088,7 +6091,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>44645</v>
       </c>
@@ -6144,7 +6147,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>44646</v>
       </c>
@@ -6200,7 +6203,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>44647</v>
       </c>
@@ -6256,7 +6259,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>44648</v>
       </c>
@@ -6312,7 +6315,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>44649</v>
       </c>
@@ -6368,7 +6371,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>44650</v>
       </c>
@@ -6424,7 +6427,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>44651</v>
       </c>
@@ -6480,7 +6483,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>44652</v>
       </c>
@@ -6536,7 +6539,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>44653</v>
       </c>
@@ -6598,7 +6601,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>44654</v>
       </c>
@@ -6660,7 +6663,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>44655</v>
       </c>
@@ -6710,7 +6713,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>44656</v>
       </c>
@@ -6772,7 +6775,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>44657</v>
       </c>
@@ -6834,7 +6837,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>44658</v>
       </c>
@@ -6896,7 +6899,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>44659</v>
       </c>
@@ -6958,7 +6961,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>44660</v>
       </c>
@@ -7020,7 +7023,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>44661</v>
       </c>
@@ -7082,7 +7085,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>44662</v>
       </c>
@@ -7144,7 +7147,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>44663</v>
       </c>
@@ -7206,7 +7209,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>44664</v>
       </c>
@@ -7268,7 +7271,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>44665</v>
       </c>
@@ -7330,7 +7333,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>44666</v>
       </c>
@@ -7392,7 +7395,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>44667</v>
       </c>
@@ -7454,7 +7457,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>44668</v>
       </c>
@@ -7516,7 +7519,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>44669</v>
       </c>
@@ -7578,7 +7581,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>44670</v>
       </c>
@@ -7640,7 +7643,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>44671</v>
       </c>
@@ -7702,7 +7705,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>44672</v>
       </c>
@@ -7764,7 +7767,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>44673</v>
       </c>
@@ -7826,7 +7829,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>44674</v>
       </c>
@@ -7888,7 +7891,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>44675</v>
       </c>
@@ -7950,7 +7953,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>44676</v>
       </c>
@@ -8012,7 +8015,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>44677</v>
       </c>
@@ -8074,7 +8077,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>44678</v>
       </c>
@@ -8136,7 +8139,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>44679</v>
       </c>
@@ -8198,7 +8201,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>44680</v>
       </c>
@@ -8260,7 +8263,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>44681</v>
       </c>
@@ -8322,7 +8325,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>44682</v>
       </c>
@@ -8384,7 +8387,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>44683</v>
       </c>
@@ -8446,7 +8449,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>44684</v>
       </c>
@@ -8508,7 +8511,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>44685</v>
       </c>
@@ -8570,7 +8573,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>44686</v>
       </c>
@@ -8632,7 +8635,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>44687</v>
       </c>
@@ -8694,7 +8697,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>44688</v>
       </c>
@@ -8756,7 +8759,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>44689</v>
       </c>
@@ -8818,7 +8821,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>44690</v>
       </c>
@@ -8880,7 +8883,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>44691</v>
       </c>
@@ -8942,7 +8945,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>44692</v>
       </c>
@@ -9004,7 +9007,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>44693</v>
       </c>
@@ -9066,7 +9069,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>44694</v>
       </c>
@@ -9128,7 +9131,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>44695</v>
       </c>
@@ -9190,7 +9193,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>44696</v>
       </c>
@@ -9252,7 +9255,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>44697</v>
       </c>
@@ -9314,7 +9317,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>44698</v>
       </c>
@@ -9376,7 +9379,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>44699</v>
       </c>
@@ -9438,7 +9441,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>44700</v>
       </c>
@@ -9500,7 +9503,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>44701</v>
       </c>
@@ -9562,7 +9565,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>44702</v>
       </c>
@@ -9624,7 +9627,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>44703</v>
       </c>
@@ -9686,7 +9689,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>44704</v>
       </c>
@@ -9748,7 +9751,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>44705</v>
       </c>
@@ -9810,7 +9813,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>44706</v>
       </c>
@@ -9872,7 +9875,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>44707</v>
       </c>
@@ -9934,7 +9937,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>44708</v>
       </c>
@@ -9996,7 +9999,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>44709</v>
       </c>
@@ -10058,7 +10061,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>44710</v>
       </c>
@@ -10120,7 +10123,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>44711</v>
       </c>
@@ -10182,7 +10185,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>44712</v>
       </c>
@@ -10244,7 +10247,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>44713</v>
       </c>
@@ -10306,7 +10309,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>44714</v>
       </c>
@@ -10368,7 +10371,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>44715</v>
       </c>
@@ -10430,7 +10433,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>44716</v>
       </c>
@@ -10492,7 +10495,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>44717</v>
       </c>
@@ -10554,7 +10557,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>44718</v>
       </c>
@@ -10616,7 +10619,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>44719</v>
       </c>
@@ -10678,7 +10681,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>44720</v>
       </c>
@@ -10740,7 +10743,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>44721</v>
       </c>
@@ -10802,7 +10805,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>44722</v>
       </c>
@@ -10864,7 +10867,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>44723</v>
       </c>
@@ -10926,7 +10929,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>44724</v>
       </c>
@@ -10988,7 +10991,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>44725</v>
       </c>
@@ -11050,7 +11053,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>44726</v>
       </c>
@@ -11112,7 +11115,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>44727</v>
       </c>
@@ -11162,7 +11165,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>44728</v>
       </c>
@@ -11218,7 +11221,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>44729</v>
       </c>
@@ -11280,7 +11283,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>44730</v>
       </c>
@@ -11342,7 +11345,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>44731</v>
       </c>
@@ -11404,7 +11407,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>44732</v>
       </c>
@@ -11466,7 +11469,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>44733</v>
       </c>
@@ -11528,7 +11531,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>44734</v>
       </c>
@@ -11590,7 +11593,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>44735</v>
       </c>
@@ -11652,7 +11655,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>44736</v>
       </c>
@@ -11714,7 +11717,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>44737</v>
       </c>
@@ -11776,7 +11779,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>44738</v>
       </c>
@@ -11838,7 +11841,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>44739</v>
       </c>
@@ -11900,7 +11903,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>44740</v>
       </c>
@@ -11962,7 +11965,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>44741</v>
       </c>
@@ -12024,7 +12027,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>44742</v>
       </c>
@@ -12086,7 +12089,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>44743</v>
       </c>
@@ -12148,7 +12151,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>44744</v>
       </c>
@@ -12210,7 +12213,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>44745</v>
       </c>
@@ -12272,7 +12275,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>44746</v>
       </c>
@@ -12334,7 +12337,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>44747</v>
       </c>
@@ -12396,7 +12399,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>44748</v>
       </c>
@@ -12458,7 +12461,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>44749</v>
       </c>
@@ -12520,7 +12523,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>44750</v>
       </c>
@@ -12582,7 +12585,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>44751</v>
       </c>
@@ -12644,7 +12647,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>44752</v>
       </c>
@@ -12706,7 +12709,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>44753</v>
       </c>
@@ -12768,7 +12771,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>44754</v>
       </c>
@@ -12830,7 +12833,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>44755</v>
       </c>
@@ -12892,7 +12895,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>44756</v>
       </c>
@@ -12954,7 +12957,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>44757</v>
       </c>
@@ -13016,7 +13019,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>44758</v>
       </c>
@@ -13078,7 +13081,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>44759</v>
       </c>
@@ -13140,7 +13143,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>44760</v>
       </c>
@@ -13202,7 +13205,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>44761</v>
       </c>
@@ -13264,7 +13267,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>44762</v>
       </c>
@@ -13326,7 +13329,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>44763</v>
       </c>
@@ -13388,7 +13391,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>44764</v>
       </c>
@@ -13450,7 +13453,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>44765</v>
       </c>
@@ -13512,7 +13515,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>44766</v>
       </c>
@@ -13574,7 +13577,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>44767</v>
       </c>
@@ -13636,7 +13639,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>44768</v>
       </c>
@@ -13698,7 +13701,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>44769</v>
       </c>
@@ -13760,7 +13763,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>44770</v>
       </c>
@@ -13822,7 +13825,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>44771</v>
       </c>
@@ -13884,7 +13887,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>44772</v>
       </c>
@@ -13946,7 +13949,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>44773</v>
       </c>
@@ -14008,7 +14011,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>44774</v>
       </c>
@@ -14070,7 +14073,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>44775</v>
       </c>
@@ -14132,7 +14135,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>44776</v>
       </c>
@@ -14194,7 +14197,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>44777</v>
       </c>
@@ -14256,7 +14259,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>44778</v>
       </c>
@@ -14318,7 +14321,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>44779</v>
       </c>
@@ -14380,7 +14383,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>44780</v>
       </c>
@@ -14442,7 +14445,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>44781</v>
       </c>
@@ -14504,7 +14507,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>44782</v>
       </c>
@@ -14566,7 +14569,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>44783</v>
       </c>
@@ -14628,7 +14631,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>44784</v>
       </c>
@@ -14690,7 +14693,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>44785</v>
       </c>
@@ -14752,7 +14755,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>44786</v>
       </c>
@@ -14814,7 +14817,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>44787</v>
       </c>
@@ -14876,7 +14879,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>44788</v>
       </c>
@@ -14938,7 +14941,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>44789</v>
       </c>
@@ -15000,7 +15003,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>44790</v>
       </c>
@@ -15062,7 +15065,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>44791</v>
       </c>
@@ -15124,7 +15127,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>44792</v>
       </c>
@@ -15180,7 +15183,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>44793</v>
       </c>
@@ -15242,7 +15245,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>44794</v>
       </c>
@@ -15304,7 +15307,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>44795</v>
       </c>
@@ -15366,7 +15369,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>44796</v>
       </c>
@@ -15428,7 +15431,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>44797</v>
       </c>
@@ -15490,7 +15493,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>44798</v>
       </c>
@@ -15552,7 +15555,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>44799</v>
       </c>
@@ -15614,7 +15617,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>44800</v>
       </c>
@@ -15676,7 +15679,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>44801</v>
       </c>
@@ -15738,7 +15741,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>44802</v>
       </c>
@@ -15800,7 +15803,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>44803</v>
       </c>
@@ -15862,7 +15865,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>44804</v>
       </c>
@@ -15924,7 +15927,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>44805</v>
       </c>
@@ -15986,7 +15989,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>44806</v>
       </c>
@@ -16048,7 +16051,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>44807</v>
       </c>
@@ -16110,7 +16113,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>44808</v>
       </c>
@@ -16172,7 +16175,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>44809</v>
       </c>
@@ -16234,7 +16237,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>44810</v>
       </c>
@@ -16296,7 +16299,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>44811</v>
       </c>
@@ -16358,7 +16361,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>44812</v>
       </c>
@@ -16420,7 +16423,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>44813</v>
       </c>
@@ -16482,7 +16485,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>44814</v>
       </c>
@@ -16544,7 +16547,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>44815</v>
       </c>
@@ -16606,7 +16609,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>44816</v>
       </c>
@@ -16668,7 +16671,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>44817</v>
       </c>
@@ -16730,7 +16733,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>44818</v>
       </c>
@@ -16792,7 +16795,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>44819</v>
       </c>
@@ -16854,7 +16857,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>44820</v>
       </c>
@@ -16916,7 +16919,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>44821</v>
       </c>
@@ -16978,7 +16981,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>44822</v>
       </c>
@@ -17040,7 +17043,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>44823</v>
       </c>
@@ -17102,7 +17105,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>44824</v>
       </c>
@@ -17164,7 +17167,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>44825</v>
       </c>
@@ -17226,7 +17229,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>44826</v>
       </c>
@@ -17288,7 +17291,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>44827</v>
       </c>
@@ -17350,7 +17353,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>44828</v>
       </c>
@@ -17412,7 +17415,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>44829</v>
       </c>
@@ -17474,7 +17477,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>44830</v>
       </c>
@@ -17536,7 +17539,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>44831</v>
       </c>
@@ -17598,7 +17601,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>44832</v>
       </c>
@@ -17660,7 +17663,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>44833</v>
       </c>
@@ -17722,7 +17725,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>44834</v>
       </c>
@@ -17784,7 +17787,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>44835</v>
       </c>
@@ -17846,7 +17849,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>44836</v>
       </c>
@@ -17908,7 +17911,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>44837</v>
       </c>
@@ -17970,7 +17973,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>44838</v>
       </c>
@@ -18032,7 +18035,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>44839</v>
       </c>
@@ -18094,7 +18097,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>44840</v>
       </c>
@@ -18156,7 +18159,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>44841</v>
       </c>
@@ -18218,7 +18221,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>44842</v>
       </c>
@@ -18280,7 +18283,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>44843</v>
       </c>
@@ -18342,7 +18345,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>44844</v>
       </c>
@@ -18404,7 +18407,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>44845</v>
       </c>
@@ -18466,7 +18469,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>44846</v>
       </c>
@@ -18528,7 +18531,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>44847</v>
       </c>
@@ -18590,7 +18593,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>44848</v>
       </c>
@@ -18652,7 +18655,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>44849</v>
       </c>
@@ -18714,7 +18717,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>44850</v>
       </c>
@@ -18776,7 +18779,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>44851</v>
       </c>
@@ -18838,7 +18841,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>44852</v>
       </c>
@@ -18894,7 +18897,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>44853</v>
       </c>
@@ -18956,7 +18959,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>44854</v>
       </c>
@@ -19018,7 +19021,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>44855</v>
       </c>
@@ -19080,7 +19083,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>44856</v>
       </c>
@@ -19142,7 +19145,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>44857</v>
       </c>
@@ -19204,7 +19207,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>44858</v>
       </c>
@@ -19266,7 +19269,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>44859</v>
       </c>
@@ -19328,7 +19331,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>44860</v>
       </c>
@@ -19390,7 +19393,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>44861</v>
       </c>
@@ -19452,7 +19455,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>44862</v>
       </c>
@@ -19514,7 +19517,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>44863</v>
       </c>
@@ -19576,7 +19579,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>44864</v>
       </c>
@@ -19638,7 +19641,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="305" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>44865</v>
       </c>
@@ -19700,7 +19703,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>44866</v>
       </c>
@@ -19762,7 +19765,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="307" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>44867</v>
       </c>
@@ -19824,7 +19827,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>44868</v>
       </c>
@@ -19886,7 +19889,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="309" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>44869</v>
       </c>
@@ -19948,7 +19951,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>44870</v>
       </c>
@@ -20010,7 +20013,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>44871</v>
       </c>
@@ -20072,7 +20075,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="312" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>44872</v>
       </c>
@@ -20134,7 +20137,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="313" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>44873</v>
       </c>
@@ -20196,7 +20199,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="314" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>44874</v>
       </c>
@@ -20258,7 +20261,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="315" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>44875</v>
       </c>
@@ -20320,7 +20323,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="316" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>44876</v>
       </c>
@@ -20382,7 +20385,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="317" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>44877</v>
       </c>
@@ -20444,7 +20447,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>44878</v>
       </c>
@@ -20506,7 +20509,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>44879</v>
       </c>
@@ -20568,7 +20571,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="320" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>44880</v>
       </c>
@@ -20630,7 +20633,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>44881</v>
       </c>
@@ -20692,7 +20695,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>44882</v>
       </c>
@@ -20754,7 +20757,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>44883</v>
       </c>
@@ -20816,7 +20819,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>44884</v>
       </c>
@@ -20878,7 +20881,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>44885</v>
       </c>
@@ -20940,7 +20943,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>44886</v>
       </c>
@@ -21002,7 +21005,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="327" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>44887</v>
       </c>
@@ -21064,7 +21067,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="328" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>44888</v>
       </c>
@@ -21126,7 +21129,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>44889</v>
       </c>
@@ -21182,7 +21185,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>44890</v>
       </c>
@@ -21238,7 +21241,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="331" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>44891</v>
       </c>
@@ -21300,7 +21303,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>44892</v>
       </c>
@@ -21362,7 +21365,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>44893</v>
       </c>
@@ -21424,7 +21427,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>44894</v>
       </c>
@@ -21486,7 +21489,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>44895</v>
       </c>
@@ -21548,7 +21551,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>44896</v>
       </c>
@@ -21610,7 +21613,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="337" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>44897</v>
       </c>
@@ -21672,7 +21675,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="338" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>44898</v>
       </c>
@@ -21734,7 +21737,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="339" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>44899</v>
       </c>
@@ -21796,7 +21799,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="340" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>44900</v>
       </c>
@@ -21858,7 +21861,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="341" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>44901</v>
       </c>
@@ -21920,7 +21923,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="342" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>44902</v>
       </c>
@@ -21982,7 +21985,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="343" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>44903</v>
       </c>
@@ -22044,7 +22047,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="344" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>44904</v>
       </c>
@@ -22106,7 +22109,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="345" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>44905</v>
       </c>
@@ -22168,7 +22171,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="346" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>44906</v>
       </c>
@@ -22230,7 +22233,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="347" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>44907</v>
       </c>
@@ -22292,7 +22295,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="348" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>44908</v>
       </c>
@@ -22354,7 +22357,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="349" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>44909</v>
       </c>
@@ -22416,7 +22419,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="350" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>44910</v>
       </c>
@@ -22478,7 +22481,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="351" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>44911</v>
       </c>
@@ -22540,7 +22543,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="352" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>44912</v>
       </c>
@@ -22602,7 +22605,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="353" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>44913</v>
       </c>
@@ -22664,7 +22667,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="354" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>44914</v>
       </c>
@@ -22720,7 +22723,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="355" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>44915</v>
       </c>
@@ -22776,7 +22779,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="356" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>44916</v>
       </c>
@@ -22838,7 +22841,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="357" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>44917</v>
       </c>
@@ -22900,7 +22903,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="358" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>44918</v>
       </c>
@@ -22962,7 +22965,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="359" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>44919</v>
       </c>
@@ -23024,7 +23027,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="360" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>44920</v>
       </c>
@@ -23086,7 +23089,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="361" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>44921</v>
       </c>
@@ -23148,7 +23151,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="362" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>44922</v>
       </c>
@@ -23210,7 +23213,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="363" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>44923</v>
       </c>
@@ -23272,7 +23275,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="364" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>44924</v>
       </c>
@@ -23334,7 +23337,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="365" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>44925</v>
       </c>
@@ -23396,7 +23399,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="366" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>44926</v>
       </c>
